--- a/ordem.xlsx
+++ b/ordem.xlsx
@@ -372,7 +372,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="1" zeroHeight="0" outlineLevelRow="0"/>
@@ -431,7 +431,7 @@
     <row r="2" ht="15" customHeight="1" s="8">
       <c r="A2" s="6" t="inlineStr">
         <is>
-          <t>P-55</t>
+          <t>P-10.00</t>
         </is>
       </c>
       <c r="B2" s="10" t="n">
@@ -467,7 +467,7 @@
     <row r="3" ht="15" customHeight="1" s="8">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>P-75</t>
+          <t>P-1000</t>
         </is>
       </c>
       <c r="B3" s="10" t="n">
@@ -503,7 +503,7 @@
     <row r="4" ht="15" customHeight="1" s="8">
       <c r="A4" s="6" t="inlineStr">
         <is>
-          <t>P-11</t>
+          <t>P-100</t>
         </is>
       </c>
       <c r="B4" s="10" t="n">
